--- a/qnabukuagama.xlsx
+++ b/qnabukuagama.xlsx
@@ -270,9 +270,6 @@
     <t>1. perintah untuk menuntut ilmu, 2. perintah untuk selalu beriman kepada Allah Swt, 3. Perintah untuk memuliakan orang-orang beriman dan berilmu pengetahuan</t>
   </si>
   <si>
-    <t>Bagimana etika dalam mencari ilmu</t>
-  </si>
-  <si>
     <t>mencintai ilmu yang sedang dipelajari, menghomarti guru, tidak memotong pembicaraan guru, mendengarkan penjelasan guru</t>
   </si>
   <si>
@@ -607,6 +604,9 @@
   </si>
   <si>
     <t>Sahabat</t>
+  </si>
+  <si>
+    <t>bagaimana etika dalam mencari ilmu</t>
   </si>
 </sst>
 </file>
@@ -1004,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
@@ -1035,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>3</v>
@@ -1049,7 +1049,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>5</v>
@@ -1063,10 +1063,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>7</v>
@@ -1077,10 +1077,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>8</v>
@@ -1091,10 +1091,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>23</v>
@@ -1105,7 +1105,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>9</v>
@@ -1119,7 +1119,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>11</v>
@@ -1133,7 +1133,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>13</v>
@@ -1147,7 +1147,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>15</v>
@@ -1161,7 +1161,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>17</v>
@@ -1175,7 +1175,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>19</v>
@@ -1189,7 +1189,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>21</v>
@@ -1203,7 +1203,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>24</v>
@@ -1217,7 +1217,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>26</v>
@@ -1231,7 +1231,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>28</v>
@@ -1245,7 +1245,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>30</v>
@@ -1259,7 +1259,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>35</v>
@@ -1273,7 +1273,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>33</v>
@@ -1287,7 +1287,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>36</v>
@@ -1301,7 +1301,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>38</v>
@@ -1315,7 +1315,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>40</v>
@@ -1329,7 +1329,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>42</v>
@@ -1343,7 +1343,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>44</v>
@@ -1357,7 +1357,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>46</v>
@@ -1371,7 +1371,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>48</v>
@@ -1385,7 +1385,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>50</v>
@@ -1399,7 +1399,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>52</v>
@@ -1413,7 +1413,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>54</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>59</v>
@@ -1441,7 +1441,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>58</v>
@@ -1455,7 +1455,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>60</v>
@@ -1469,7 +1469,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>62</v>
@@ -1483,7 +1483,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>64</v>
@@ -1497,7 +1497,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>66</v>
@@ -1511,7 +1511,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>68</v>
@@ -1525,7 +1525,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>70</v>
@@ -1539,7 +1539,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>72</v>
@@ -1553,7 +1553,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>74</v>
@@ -1567,7 +1567,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>76</v>
@@ -1581,7 +1581,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>78</v>
@@ -1595,7 +1595,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>80</v>
@@ -1609,7 +1609,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>82</v>
@@ -1623,13 +1623,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C44" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1637,13 +1637,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C45" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1651,13 +1651,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1665,13 +1665,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1679,13 +1679,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C48" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1693,13 +1693,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C49" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1707,13 +1707,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C50" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1721,13 +1721,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C51" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1735,13 +1735,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C52" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1749,13 +1749,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C53" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1763,13 +1763,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C54" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1777,13 +1777,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C55" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1791,13 +1791,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C56" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1805,13 +1805,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C57" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1819,13 +1819,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1833,13 +1833,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C59" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1847,13 +1847,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C60" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1861,13 +1861,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C61" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1875,13 +1875,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C62" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -1889,13 +1889,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C63" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -1903,13 +1903,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C64" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -1917,13 +1917,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C65" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -1931,13 +1931,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C66" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -1945,13 +1945,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C67" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1959,13 +1959,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C68" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1973,13 +1973,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C69" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -1987,13 +1987,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C70" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2001,13 +2001,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C71" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -2015,13 +2015,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C72" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2029,13 +2029,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C73" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2043,13 +2043,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C74" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2057,13 +2057,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C75" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2071,13 +2071,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C76" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2085,13 +2085,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2099,13 +2099,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2113,13 +2113,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2127,13 +2127,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C80" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2141,13 +2141,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C81" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D81" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2155,13 +2155,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2169,13 +2169,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2183,13 +2183,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C84" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2197,13 +2197,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C85" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2211,13 +2211,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C86" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2225,13 +2225,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C87" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D87" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2239,13 +2239,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C88" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D88" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2253,13 +2253,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C89" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2267,13 +2267,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C90" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2281,13 +2281,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C91" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D91" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2295,13 +2295,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2309,13 +2309,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2323,13 +2323,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C94" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D94" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
